--- a/AccuPay.Web/ImportTemplates/accupay-employeeshift-template.xlsx
+++ b/AccuPay.Web/ImportTemplates/accupay-employeeshift-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="20490" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>AccuPay Shift Schedule Template</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">In this example, we are giving employe </t>
     </r>
     <r>
@@ -286,11 +292,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="26">
@@ -336,70 +342,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,23 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +374,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -451,6 +396,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -459,35 +465,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,187 +502,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,28 +702,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,20 +741,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,38 +774,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,142 +820,157 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1042,6 +1069,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00BBE33D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1343,154 +1375,147 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.1428571428571" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.4285714285714" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7142857142857" style="11" customWidth="1"/>
+    <col min="2" max="3" width="14.7142857142857" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.1428571428571" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.4285714285714" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.8571428571429" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="3" s="16" customFormat="1" spans="1:6">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="6" s="17" customFormat="1" spans="1:6">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" s="8" customFormat="1" spans="1:6">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" s="17" customFormat="1" spans="1:6">
+      <c r="A7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" s="8" customFormat="1" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" s="17" customFormat="1" spans="1:6">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" s="8" customFormat="1" spans="1:6">
-      <c r="A9" s="15" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" s="17" customFormat="1" spans="1:6">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" s="17" customFormat="1" spans="1:6">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" s="8" customFormat="1" spans="1:6">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" s="17" customFormat="1" spans="1:6">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" s="8" customFormat="1" spans="1:6">
-      <c r="A12" s="15" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" s="17" customFormat="1" spans="1:6">
+      <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" s="8" customFormat="1" spans="1:6">
-      <c r="A13" s="15"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" s="17" customFormat="1" spans="1:6">
+      <c r="A13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" spans="1:6">
-      <c r="A15" s="12" t="s">
+    <row r="15" s="17" customFormat="1" spans="1:6">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E4"/>
@@ -1511,93 +1536,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" style="11" customWidth="1"/>
+    <col min="2" max="3" width="10.7142857142857" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20.1428571428571" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.4285714285714" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="78" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="10" customFormat="1" ht="78" customHeight="1" spans="1:6">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" s="4" customFormat="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" s="10" customFormat="1"/>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="12">
         <v>0.291666666666667</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="12">
         <v>0.625</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="13">
         <v>42744</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>0.333333333333333</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="12">
         <v>0.666666666666667</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="13">
         <v>42745</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>0.208333333333333</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="12">
         <v>0.583333333333333</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="13">
         <v>42736</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="13">
         <v>42750</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="15"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1" objects="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -1621,29 +1647,31 @@
     <col min="2" max="3" width="12.7142857142857" style="2" customWidth="1"/>
     <col min="4" max="5" width="18.7142857142857" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" selectLockedCells="1" objects="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
